--- a/posesiones/1485977.xlsx
+++ b/posesiones/1485977.xlsx
@@ -1832,10 +1832,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2026,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>13</v>
@@ -2079,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>18</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2179,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>5</v>
@@ -2232,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R11">
         <v>16</v>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R13">
         <v>7</v>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R15">
         <v>6</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2535,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R17">
         <v>17</v>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2729,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R21">
         <v>24</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2829,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R23">
         <v>19</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2932,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R25">
         <v>7</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3226,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R31">
         <v>26</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3373,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R34">
         <v>23</v>
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3567,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R38">
         <v>26</v>
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3667,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R40">
         <v>14</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3911,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R45">
         <v>31</v>
@@ -3964,7 +3964,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R46">
         <v>13</v>
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4067,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R48">
         <v>4</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4167,7 +4167,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R50">
         <v>7</v>
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4264,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4364,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R54">
         <v>26</v>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4461,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4508,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4793,7 +4793,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R63">
         <v>19</v>
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R64">
         <v>29</v>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4949,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R66">
         <v>8</v>
@@ -4999,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5378,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R75">
         <v>4</v>
@@ -5431,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R76">
         <v>12</v>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5531,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R78">
         <v>19</v>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5631,7 +5631,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R80">
         <v>6</v>
@@ -5681,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5775,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5825,7 +5825,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R84">
         <v>17</v>
@@ -5875,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5922,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6022,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R88">
         <v>25</v>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R90">
         <v>7</v>
@@ -6175,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6225,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R92">
         <v>19</v>
@@ -6275,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6325,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R94">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6428,7 +6428,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R96">
         <v>8</v>
@@ -6478,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6575,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6860,7 +6860,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R105">
         <v>18</v>
@@ -6913,7 +6913,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R106">
         <v>24</v>
@@ -6966,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7016,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R108">
         <v>16</v>
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7119,7 +7119,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R110">
         <v>10</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7222,7 +7222,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R112">
         <v>24</v>
@@ -7275,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7369,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7510,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7557,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7607,7 +7607,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R120">
         <v>12</v>
@@ -7657,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7698,10 +7698,10 @@
         <v>1</v>
       </c>
       <c r="P122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q122">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7742,10 +7742,10 @@
         <v>1</v>
       </c>
       <c r="P123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7795,7 +7795,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R124">
         <v>15</v>
@@ -7848,7 +7848,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R125">
         <v>25</v>
@@ -7901,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7951,7 +7951,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R127">
         <v>4</v>
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8051,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R129">
         <v>7</v>
@@ -8101,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8201,7 +8201,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R132">
         <v>37</v>
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8304,7 +8304,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R134">
         <v>12</v>
@@ -8357,7 +8357,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R135">
         <v>7</v>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8454,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8501,7 +8501,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8645,7 +8645,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R141">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8745,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8795,7 +8795,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R144">
         <v>32</v>
@@ -8848,7 +8848,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R145">
         <v>17</v>
@@ -8901,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8951,7 +8951,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R147">
         <v>10</v>
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9045,7 +9045,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9095,7 +9095,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R150">
         <v>18</v>
@@ -9145,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9192,7 +9192,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9292,7 +9292,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R154">
         <v>22</v>
@@ -9345,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9395,7 +9395,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R156">
         <v>18</v>
@@ -9448,7 +9448,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9498,7 +9498,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R158">
         <v>10</v>
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9598,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9645,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9695,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R162">
         <v>11</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R164">
         <v>24</v>
@@ -9851,7 +9851,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R165">
         <v>16</v>
@@ -9904,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9954,7 +9954,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R167">
         <v>11</v>
@@ -10004,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10054,7 +10054,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10101,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10148,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10195,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10242,7 +10242,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10336,7 +10336,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10386,7 +10386,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R176">
         <v>29</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10483,7 +10483,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10533,7 +10533,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R179">
         <v>19</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10630,7 +10630,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10727,7 +10727,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R183">
         <v>13</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10827,7 +10827,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10874,7 +10874,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10921,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10968,7 +10968,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11018,7 +11018,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R189">
         <v>31</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11118,7 +11118,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11168,7 +11168,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R192">
         <v>23</v>
@@ -11221,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11271,7 +11271,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R194">
         <v>8</v>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11374,7 +11374,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R196">
         <v>15</v>
@@ -11424,7 +11424,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11468,7 +11468,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11562,7 +11562,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11656,7 +11656,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11703,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11750,7 +11750,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11797,7 +11797,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11897,7 +11897,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R207">
         <v>21</v>
@@ -11947,7 +11947,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11997,7 +11997,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R209">
         <v>11</v>
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12094,7 +12094,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12141,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12188,7 +12188,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12238,7 +12238,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R214">
         <v>23</v>
@@ -12288,7 +12288,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12338,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R216">
         <v>8</v>
@@ -12388,7 +12388,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12435,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12482,7 +12482,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12532,7 +12532,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R220">
         <v>8</v>
@@ -12582,7 +12582,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12632,7 +12632,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R222">
         <v>21</v>
@@ -12685,7 +12685,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12732,7 +12732,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12782,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12829,7 +12829,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12879,7 +12879,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12926,7 +12926,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R228">
         <v>38</v>
@@ -12973,7 +12973,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13067,7 +13067,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13114,7 +13114,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13161,7 +13161,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13208,7 +13208,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13255,7 +13255,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13302,7 +13302,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13349,7 +13349,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13396,7 +13396,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13443,7 +13443,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13493,7 +13493,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R240">
         <v>14</v>
@@ -13543,7 +13543,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13593,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13643,7 +13643,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R243">
         <v>21</v>
@@ -13699,7 +13699,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R244">
         <v>0</v>
@@ -13743,10 +13743,10 @@
         <v>1</v>
       </c>
       <c r="P245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q245">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13793,7 +13793,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13840,7 +13840,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13887,7 +13887,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13934,7 +13934,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13981,7 +13981,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14028,7 +14028,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14075,7 +14075,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14122,7 +14122,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14169,7 +14169,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14216,7 +14216,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14257,10 +14257,10 @@
         <v>1</v>
       </c>
       <c r="P256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q256">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14307,7 +14307,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14354,7 +14354,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14401,7 +14401,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14451,7 +14451,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R260">
         <v>31</v>
@@ -14504,7 +14504,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R261">
         <v>16</v>
@@ -14554,7 +14554,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14604,7 +14604,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R263">
         <v>9</v>
@@ -14654,7 +14654,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R265">
         <v>5</v>
@@ -14754,7 +14754,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14804,7 +14804,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R267">
         <v>21</v>
@@ -14857,7 +14857,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R269">
         <v>6</v>
@@ -14960,7 +14960,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15010,7 +15010,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R271">
         <v>9</v>
@@ -15063,7 +15063,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15157,7 +15157,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15204,7 +15204,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15251,7 +15251,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15298,7 +15298,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15348,7 +15348,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R278">
         <v>25</v>
@@ -15401,7 +15401,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R279">
         <v>13</v>
@@ -15451,7 +15451,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15501,7 +15501,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R281">
         <v>4</v>
@@ -15548,7 +15548,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15598,7 +15598,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R283">
         <v>13</v>
@@ -15651,7 +15651,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15701,7 +15701,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R285">
         <v>8</v>
@@ -15754,7 +15754,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15801,7 +15801,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15848,7 +15848,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15898,7 +15898,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R289">
         <v>22</v>
@@ -15951,7 +15951,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16001,7 +16001,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R291">
         <v>20</v>
@@ -16054,7 +16054,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R292">
         <v>15</v>
@@ -16107,7 +16107,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R293">
         <v>19</v>
@@ -16160,7 +16160,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R294">
         <v>17</v>
@@ -16210,7 +16210,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16257,7 +16257,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16304,7 +16304,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16351,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16401,7 +16401,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R299">
         <v>0</v>
@@ -16451,7 +16451,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16498,7 +16498,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16545,7 +16545,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16598,7 +16598,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R303">
         <v>13</v>
@@ -16648,7 +16648,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16695,7 +16695,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16742,7 +16742,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16792,7 +16792,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R307">
         <v>7</v>
@@ -16845,7 +16845,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R308">
         <v>13</v>
@@ -16898,7 +16898,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16948,7 +16948,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R310">
         <v>6</v>
@@ -17001,7 +17001,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R311">
         <v>11</v>
@@ -17054,7 +17054,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R312">
         <v>16</v>
@@ -17104,7 +17104,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17154,7 +17154,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R314">
         <v>16</v>
@@ -17204,7 +17204,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17254,7 +17254,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17304,7 +17304,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R317">
         <v>7</v>
@@ -17351,7 +17351,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17398,7 +17398,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17445,7 +17445,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17495,7 +17495,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R321">
         <v>13</v>
@@ -17545,7 +17545,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17592,7 +17592,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17639,7 +17639,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17686,7 +17686,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17736,7 +17736,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R326">
         <v>7</v>
@@ -17786,7 +17786,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17833,7 +17833,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17880,7 +17880,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17927,7 +17927,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17974,7 +17974,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18021,7 +18021,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18071,7 +18071,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R333">
         <v>21</v>
@@ -18124,7 +18124,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R334">
         <v>12</v>
@@ -18177,7 +18177,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18224,7 +18224,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18274,7 +18274,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18324,7 +18324,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R338">
         <v>30</v>
@@ -18374,7 +18374,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18424,7 +18424,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R340">
         <v>33</v>
@@ -18474,7 +18474,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18524,7 +18524,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R342">
         <v>18</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18624,7 +18624,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R344">
         <v>25</v>
@@ -18677,7 +18677,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18727,7 +18727,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R346">
         <v>16</v>
@@ -18777,7 +18777,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18824,7 +18824,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18871,7 +18871,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18921,7 +18921,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R350">
         <v>6</v>
@@ -18974,7 +18974,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19021,7 +19021,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19071,7 +19071,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19121,7 +19121,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R354">
         <v>28</v>
@@ -19171,7 +19171,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19218,7 +19218,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19265,7 +19265,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19312,7 +19312,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19362,7 +19362,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R359">
         <v>13</v>
@@ -19415,7 +19415,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R360">
         <v>22</v>
@@ -19468,7 +19468,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R361">
         <v>14</v>
@@ -19518,7 +19518,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19571,7 +19571,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R363">
         <v>0</v>
@@ -19615,10 +19615,10 @@
         <v>1</v>
       </c>
       <c r="P364" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q364">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19665,7 +19665,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19712,7 +19712,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19753,10 +19753,10 @@
         <v>1</v>
       </c>
       <c r="P367" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q367">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19803,7 +19803,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19850,7 +19850,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19900,7 +19900,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R370">
         <v>20</v>
@@ -19950,7 +19950,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19997,7 +19997,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20044,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20141,7 +20141,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R375">
         <v>27</v>
@@ -20191,7 +20191,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20238,7 +20238,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20285,7 +20285,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20332,7 +20332,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20379,7 +20379,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20429,7 +20429,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R381">
         <v>0</v>
@@ -20479,7 +20479,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20526,7 +20526,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20576,7 +20576,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R384">
         <v>16</v>
@@ -20629,7 +20629,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20679,7 +20679,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R386">
         <v>32</v>
@@ -20729,7 +20729,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20773,7 +20773,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20823,7 +20823,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R389">
         <v>23</v>
@@ -20876,7 +20876,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20926,7 +20926,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R391">
         <v>19</v>
@@ -20976,7 +20976,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21023,7 +21023,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21070,7 +21070,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21117,7 +21117,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21164,7 +21164,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21211,7 +21211,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21258,7 +21258,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21305,7 +21305,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21355,7 +21355,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R400">
         <v>19</v>
@@ -21405,7 +21405,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21452,7 +21452,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21502,7 +21502,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R403">
         <v>15</v>
@@ -21552,7 +21552,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21602,7 +21602,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R405">
         <v>7</v>
@@ -21652,7 +21652,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21702,7 +21702,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R407">
         <v>28</v>
@@ -21752,7 +21752,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21799,7 +21799,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21846,7 +21846,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21943,7 +21943,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R412">
         <v>16</v>
@@ -21993,7 +21993,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22040,7 +22040,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22090,7 +22090,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R415">
         <v>11</v>
@@ -22143,7 +22143,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22193,7 +22193,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R417">
         <v>4</v>
@@ -22243,7 +22243,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22290,7 +22290,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22337,7 +22337,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22384,7 +22384,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22434,7 +22434,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R422">
         <v>30</v>
@@ -22487,7 +22487,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22534,7 +22534,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22584,7 +22584,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22634,7 +22634,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R426">
         <v>20</v>
@@ -22687,7 +22687,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22737,7 +22737,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R428">
         <v>18</v>
@@ -22787,7 +22787,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22878,7 +22878,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22925,7 +22925,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22975,7 +22975,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R433">
         <v>8</v>
@@ -23025,7 +23025,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23072,7 +23072,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23119,7 +23119,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23166,7 +23166,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23216,7 +23216,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R438">
         <v>14</v>
@@ -23269,7 +23269,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R439">
         <v>25</v>
@@ -23319,7 +23319,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23366,7 +23366,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23413,7 +23413,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23463,7 +23463,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R443">
         <v>13</v>
@@ -23516,7 +23516,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R444">
         <v>13</v>
@@ -23566,7 +23566,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23616,7 +23616,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R446">
         <v>15</v>
@@ -23669,7 +23669,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23719,7 +23719,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R448">
         <v>23</v>
@@ -23766,7 +23766,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23860,7 +23860,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23910,7 +23910,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R452">
         <v>21</v>
@@ -23963,7 +23963,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R453">
         <v>17</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24063,7 +24063,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R455">
         <v>3</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24163,7 +24163,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24213,7 +24213,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R458">
         <v>11</v>
@@ -24266,7 +24266,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24316,7 +24316,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R460">
         <v>27</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24419,7 +24419,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R462">
         <v>5</v>
@@ -24472,7 +24472,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24522,7 +24522,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R464">
         <v>25</v>
@@ -24575,7 +24575,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R465">
         <v>7</v>
@@ -24625,7 +24625,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24675,7 +24675,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R467">
         <v>6</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24772,7 +24772,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24819,7 +24819,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24866,7 +24866,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24913,7 +24913,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24960,7 +24960,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25007,7 +25007,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R475">
         <v>7</v>
@@ -25110,7 +25110,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25160,7 +25160,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R477">
         <v>22</v>
@@ -25213,7 +25213,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R478">
         <v>8</v>
@@ -25263,7 +25263,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25304,10 +25304,10 @@
         <v>1</v>
       </c>
       <c r="P480" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q480">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="481" spans="1:17">
@@ -25348,7 +25348,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
